--- a/Presentacion/Ayuda/Matriz de confusion.xlsx
+++ b/Presentacion/Ayuda/Matriz de confusion.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>=== Run information ===</t>
   </si>
@@ -286,12 +286,6 @@
     <t>Pr(a) = (95+17+15+3) / (95+17+15+3+4+4+2+2+4)</t>
   </si>
   <si>
-    <t>Pr(e) es la probabilidad de que el acuerdo entre evaluadores se deba al azar</t>
-  </si>
-  <si>
-    <t>Pr(a) es el acuerdo observado relativo entre los observadores o El porcentaje de acuerdo observado.</t>
-  </si>
-  <si>
     <t>La probabilidad de que ambos evaluadores digan "Nada" al azar.</t>
   </si>
   <si>
@@ -341,6 +335,15 @@
   </si>
   <si>
     <t>Pr(e) = 0.451 + 0.027 + 0.019 + 0.001</t>
+  </si>
+  <si>
+    <t>Pr(a) el acuerdo relativo observado entre examinadores, o el porcentaje de acuerdo observado.</t>
+  </si>
+  <si>
+    <t>Pr(e) es la probabilidad de que el acuerdo entre examinadores se deba al azar, o la probabilidad hipotética de acuerdo casual.</t>
+  </si>
+  <si>
+    <t>El coeficiente kappa de Cohen (κ) es una estadística que mide el acuerdo inter-evaluadores para los ítems cualitativos (categóricos).</t>
   </si>
 </sst>
 </file>
@@ -348,8 +351,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -448,13 +451,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -474,7 +471,7 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,10 +481,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -496,7 +493,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -505,6 +502,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,196 +1105,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="8"/>
-    <col min="9" max="9" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>95</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <f xml:space="preserve"> SUM(C3:F3)</f>
         <v>99</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f xml:space="preserve"> SUM(C3:F3) / 146</f>
         <v>0.67808219178082196</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>17</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>4</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <f t="shared" ref="G4:G6" si="0" xml:space="preserve"> SUM(C4:F4)</f>
         <v>23</v>
       </c>
-      <c r="H4" s="19">
-        <f t="shared" ref="H4:H7" si="1" xml:space="preserve"> SUM(C4:F4) / 146</f>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H6" si="1" xml:space="preserve"> SUM(C4:F4) / 146</f>
         <v>0.15753424657534246</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>0</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>15</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f t="shared" si="1"/>
         <v>0.14383561643835616</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f t="shared" si="1"/>
         <v>2.0547945205479451E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <f xml:space="preserve"> SUM(C3:C6)</f>
         <v>97</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f t="shared" ref="D7:F7" si="2" xml:space="preserve"> SUM(D3:D6)</f>
         <v>25</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <f xml:space="preserve"> SUM(C3,D4,E5,F6)</f>
         <v>130</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f xml:space="preserve"> SUM(C3:C6) / 146</f>
         <v>0.66438356164383561</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f t="shared" ref="D8:F8" si="3" xml:space="preserve"> SUM(D3:D6) / 146</f>
         <v>0.17123287671232876</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f t="shared" si="3"/>
         <v>0.13013698630136986</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f t="shared" si="3"/>
         <v>3.4246575342465752E-2</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1299,7 +1302,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1315,204 +1318,206 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="C11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="25">
         <f xml:space="preserve"> H3*C8</f>
         <v>0.45050666166260089</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="I11" s="8" t="s">
+      <c r="E11" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="I11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="25">
         <f xml:space="preserve"> H4*D8</f>
         <v>2.6975042221805214E-2</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="I12" s="8" t="s">
+      <c r="E12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="I12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="C13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="25">
         <f>H5*E8</f>
         <v>1.8718333646087444E-2</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="29"/>
+      <c r="E13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="C14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="25">
         <f xml:space="preserve"> H6*F8</f>
         <v>7.0369675361230989E-4</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="29"/>
+      <c r="E14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="27"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <f xml:space="preserve"> SUM(C3,D4,E5,F6) / SUM(C3:F6)</f>
         <v>0.8904109589041096</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="9"/>
+      <c r="F15" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="C16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="25">
         <f xml:space="preserve"> SUM(D11:D14)</f>
         <v>0.49690373428410584</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <f xml:space="preserve"> (D15-D16)/(1-D16)</f>
         <v>0.78217083177918689</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="29"/>
+      <c r="E17" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <f xml:space="preserve"> SUM(C3,D4,E5,F6) / SUM(C3:F6)</f>
         <v>0.8904109589041096</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <f xml:space="preserve"> D4/D7</f>
         <v>0.68</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="E20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <f>D4/G4</f>
         <v>0.73913043478260865</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <f xml:space="preserve"> (2*D20*D21)/(D20+D21)</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="23">
         <v>16</v>
       </c>
     </row>
